--- a/data/donnees_ecl611.xlsx
+++ b/data/donnees_ecl611.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex4\Desktop\School\TP_ECO_FX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex4\Desktop\School\BIO500\ECL611\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2B6D79-8592-4089-BDD8-47AC316FC9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2228436-0B7B-4402-9F91-BCF73EB24540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CE6BCB6-AEDB-A94B-A821-B5F7BB316910}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="111">
   <si>
     <t>Quercus rubra</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>ouest-nord-ouest</t>
-  </si>
-  <si>
-    <t>3,1 et 3,53</t>
   </si>
   <si>
     <t>*Pour 22, 23 et 24 (cornus alternifolia), odeur de soufre, d'œufs pourris</t>
@@ -959,10 +956,10 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -980,40 +977,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="C1" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1027,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>9</v>
@@ -1045,7 +1042,7 @@
         <v>5.75</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="10">
         <v>49.442</v>
@@ -1065,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>9</v>
@@ -1083,7 +1080,7 @@
         <v>5.75</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="10">
         <v>53.921999999999997</v>
@@ -1103,7 +1100,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>9</v>
@@ -1121,7 +1118,7 @@
         <v>5.75</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="10">
         <v>90.32</v>
@@ -1141,7 +1138,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>9</v>
@@ -1159,7 +1156,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="10">
         <v>32.154000000000003</v>
@@ -1179,7 +1176,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>9</v>
@@ -1197,7 +1194,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" s="10">
         <v>17.192</v>
@@ -1217,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>9</v>
@@ -1235,7 +1232,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="10">
         <v>51.322000000000003</v>
@@ -1255,7 +1252,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>9</v>
@@ -1273,7 +1270,7 @@
         <v>4.03</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="10">
         <v>31.273</v>
@@ -1293,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>9</v>
@@ -1311,7 +1308,7 @@
         <v>4.03</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="10">
         <v>24.318999999999999</v>
@@ -1331,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>9</v>
@@ -1349,7 +1346,7 @@
         <v>4.03</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="10">
         <v>32.027000000000001</v>
@@ -1369,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>14</v>
@@ -1387,7 +1384,7 @@
         <v>2.38</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="10">
         <v>22.853000000000002</v>
@@ -1407,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>14</v>
@@ -1425,7 +1422,7 @@
         <v>2.38</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="10">
         <v>26.463999999999999</v>
@@ -1445,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>14</v>
@@ -1463,7 +1460,7 @@
         <v>2.38</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="10">
         <v>20.565000000000001</v>
@@ -1483,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>14</v>
@@ -1501,7 +1498,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" s="10">
         <v>48.293999999999997</v>
@@ -1521,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>14</v>
@@ -1539,7 +1536,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="10">
         <v>53.613</v>
@@ -1559,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>14</v>
@@ -1577,7 +1574,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" s="10">
         <v>50.255000000000003</v>
@@ -1597,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>14</v>
@@ -1615,7 +1612,7 @@
         <v>3.02</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17" s="10">
         <v>51.137</v>
@@ -1635,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>14</v>
@@ -1653,7 +1650,7 @@
         <v>3.02</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="10">
         <v>55.886000000000003</v>
@@ -1673,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>14</v>
@@ -1691,7 +1688,7 @@
         <v>3.02</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19" s="10">
         <v>49.465000000000003</v>
@@ -1711,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>10</v>
@@ -1725,11 +1722,11 @@
       <c r="H20" s="8">
         <v>1.3</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>19</v>
+      <c r="I20" s="9">
+        <v>3.32</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20" s="10">
         <v>105.371</v>
@@ -1749,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>10</v>
@@ -1763,11 +1760,11 @@
       <c r="H21" s="8">
         <v>1.3</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>19</v>
+      <c r="I21" s="9">
+        <v>3.32</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" s="10">
         <v>165.423</v>
@@ -1787,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>10</v>
@@ -1801,11 +1798,11 @@
       <c r="H22" s="8">
         <v>1.3</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>19</v>
+      <c r="I22" s="9">
+        <v>3.32</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22" s="10">
         <v>163.09299999999999</v>
@@ -1825,7 +1822,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>10</v>
@@ -1843,7 +1840,7 @@
         <v>2.83</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" s="10">
         <v>14.221</v>
@@ -1863,7 +1860,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>10</v>
@@ -1881,7 +1878,7 @@
         <v>2.83</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24" s="10">
         <v>42.634</v>
@@ -1901,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>10</v>
@@ -1919,7 +1916,7 @@
         <v>2.83</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25" s="10">
         <v>25.399000000000001</v>
@@ -1939,7 +1936,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>10</v>
@@ -1957,7 +1954,7 @@
         <v>5.04</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26" s="10">
         <v>37.036000000000001</v>
@@ -1977,7 +1974,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>10</v>
@@ -1995,7 +1992,7 @@
         <v>5.04</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K27" s="10">
         <v>25.41</v>
@@ -2015,7 +2012,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>10</v>
@@ -2033,7 +2030,7 @@
         <v>5.04</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28" s="10">
         <v>48.997</v>
@@ -2053,7 +2050,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>15</v>
@@ -2071,7 +2068,7 @@
         <v>4.26</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K29" s="10">
         <v>66.811999999999998</v>
@@ -2091,7 +2088,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>15</v>
@@ -2109,7 +2106,7 @@
         <v>4.26</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K30" s="10">
         <v>60.05</v>
@@ -2129,7 +2126,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>15</v>
@@ -2147,7 +2144,7 @@
         <v>4.26</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" s="10">
         <v>139.47200000000001</v>
@@ -2167,7 +2164,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>16</v>
@@ -2185,7 +2182,7 @@
         <v>1.93</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K32" s="10">
         <v>27.504999999999999</v>
@@ -2205,7 +2202,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>16</v>
@@ -2223,7 +2220,7 @@
         <v>1.93</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" s="10">
         <v>23.978999999999999</v>
@@ -2243,7 +2240,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>16</v>
@@ -2261,7 +2258,7 @@
         <v>1.93</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K34" s="10">
         <v>32.466000000000001</v>
@@ -2281,7 +2278,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>16</v>
@@ -2299,7 +2296,7 @@
         <v>2.93</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K35" s="10">
         <v>44.279000000000003</v>
@@ -2319,7 +2316,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>16</v>
@@ -2337,7 +2334,7 @@
         <v>2.93</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K36" s="10">
         <v>46.363999999999997</v>
@@ -2357,7 +2354,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>16</v>
@@ -2375,7 +2372,7 @@
         <v>2.93</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K37" s="10">
         <v>51.058</v>
@@ -2395,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>13</v>
@@ -2413,7 +2410,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K38" s="10">
         <v>26.259</v>
@@ -2433,7 +2430,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>13</v>
@@ -2451,7 +2448,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K39" s="10">
         <v>28.994</v>
@@ -2471,7 +2468,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>13</v>
@@ -2489,7 +2486,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K40" s="10">
         <v>32.701999999999998</v>
@@ -2509,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>9</v>
@@ -2527,7 +2524,7 @@
         <v>4.2</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K41" s="10">
         <v>33.121000000000002</v>
@@ -2547,7 +2544,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>9</v>
@@ -2565,7 +2562,7 @@
         <v>4.2</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K42" s="10">
         <v>37.869999999999997</v>
@@ -2585,7 +2582,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>9</v>
@@ -2603,7 +2600,7 @@
         <v>4.2</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K43" s="10">
         <v>28.023</v>
@@ -2623,7 +2620,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>10</v>
@@ -2641,7 +2638,7 @@
         <v>2.4</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K44" s="10">
         <v>126.623</v>
@@ -2661,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>10</v>
@@ -2679,7 +2676,7 @@
         <v>2.4</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K45" s="10">
         <v>102.496</v>
@@ -2699,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>10</v>
@@ -2717,7 +2714,7 @@
         <v>2.4</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K46" s="10">
         <v>137.73099999999999</v>
@@ -2737,13 +2734,13 @@
         <v>4</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="10">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="G47" s="7">
         <v>4</v>
@@ -2755,7 +2752,7 @@
         <v>3.04</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K47" s="10">
         <v>82.713999999999999</v>
@@ -2775,13 +2772,13 @@
         <v>4</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="10">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="G48" s="7">
         <v>4</v>
@@ -2793,7 +2790,7 @@
         <v>3.04</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K48" s="10">
         <v>99.293999999999997</v>
@@ -2813,13 +2810,13 @@
         <v>4</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="10">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="G49" s="7">
         <v>4</v>
@@ -2831,7 +2828,7 @@
         <v>3.04</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K49" s="10">
         <v>109.062</v>
@@ -2851,13 +2848,13 @@
         <v>4</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="10">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="G50" s="7">
         <v>6</v>
@@ -2869,7 +2866,7 @@
         <v>3.76</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K50" s="10">
         <v>74.123000000000005</v>
@@ -2889,13 +2886,13 @@
         <v>4</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="10">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="G51" s="7">
         <v>6</v>
@@ -2907,7 +2904,7 @@
         <v>3.76</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K51" s="10">
         <v>70.477000000000004</v>
@@ -2927,13 +2924,13 @@
         <v>4</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="10">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="G52" s="7">
         <v>6</v>
@@ -2945,7 +2942,7 @@
         <v>3.76</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K52" s="10">
         <v>141.38</v>
@@ -2965,7 +2962,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>15</v>
@@ -2983,7 +2980,7 @@
         <v>4.95</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K53" s="10">
         <v>102.361</v>
@@ -3003,7 +3000,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>15</v>
@@ -3021,7 +3018,7 @@
         <v>4.95</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K54" s="10">
         <v>81.697999999999993</v>
@@ -3041,7 +3038,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>15</v>
@@ -3059,7 +3056,7 @@
         <v>4.95</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K55" s="10">
         <v>94.317999999999998</v>
@@ -3079,7 +3076,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>11</v>
@@ -3097,7 +3094,7 @@
         <v>3.74</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K56" s="10">
         <v>98.745999999999995</v>
@@ -3117,7 +3114,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>11</v>
@@ -3135,7 +3132,7 @@
         <v>3.74</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K57" s="10">
         <v>132.429</v>
@@ -3155,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>11</v>
@@ -3173,7 +3170,7 @@
         <v>3.74</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K58" s="10">
         <v>123.65</v>
@@ -3193,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>14</v>
@@ -3211,7 +3208,7 @@
         <v>2.56</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K59" s="10">
         <v>61.932000000000002</v>
@@ -3231,7 +3228,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>14</v>
@@ -3249,7 +3246,7 @@
         <v>2.56</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K60" s="10">
         <v>56.139000000000003</v>
@@ -3269,7 +3266,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>14</v>
@@ -3287,7 +3284,7 @@
         <v>2.56</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K61" s="10">
         <v>98.494</v>
@@ -3307,7 +3304,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>11</v>
@@ -3325,7 +3322,7 @@
         <v>3.74</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K62" s="10">
         <v>154.72300000000001</v>
@@ -3345,7 +3342,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>11</v>
@@ -3363,7 +3360,7 @@
         <v>3.74</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K63" s="10">
         <v>102.887</v>
@@ -3383,7 +3380,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>11</v>
@@ -3401,7 +3398,7 @@
         <v>3.74</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K64" s="10">
         <v>253.47300000000001</v>
@@ -3421,13 +3418,13 @@
         <v>4</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F65" s="10">
-        <v>157.5</v>
+        <v>-157.5</v>
       </c>
       <c r="G65" s="7">
         <v>8</v>
@@ -3439,7 +3436,7 @@
         <v>2.37</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K65" s="10">
         <v>48.393000000000001</v>
@@ -3459,13 +3456,13 @@
         <v>4</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F66" s="10">
-        <v>157.5</v>
+        <v>-157.5</v>
       </c>
       <c r="G66" s="7">
         <v>8</v>
@@ -3477,7 +3474,7 @@
         <v>2.37</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K66" s="10">
         <v>24.254000000000001</v>
@@ -3497,13 +3494,13 @@
         <v>4</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F67" s="10">
-        <v>157.5</v>
+        <v>-157.5</v>
       </c>
       <c r="G67" s="7">
         <v>8</v>
@@ -3515,7 +3512,7 @@
         <v>2.37</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K67" s="10">
         <v>23.67</v>
@@ -3535,13 +3532,13 @@
         <v>4</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F68" s="10">
-        <v>157.5</v>
+        <v>-157.5</v>
       </c>
       <c r="G68" s="7">
         <v>8</v>
@@ -3553,7 +3550,7 @@
         <v>2.65</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K68" s="10">
         <v>20.212</v>
@@ -3573,13 +3570,13 @@
         <v>4</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F69" s="10">
-        <v>157.5</v>
+        <v>-157.5</v>
       </c>
       <c r="G69" s="7">
         <v>8</v>
@@ -3591,7 +3588,7 @@
         <v>2.65</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K69" s="10">
         <v>39.527000000000001</v>
@@ -3611,13 +3608,13 @@
         <v>4</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F70" s="10">
-        <v>157.5</v>
+        <v>-157.5</v>
       </c>
       <c r="G70" s="7">
         <v>8</v>
@@ -3629,7 +3626,7 @@
         <v>2.65</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K70" s="10">
         <v>15.945</v>
@@ -3649,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>18</v>
@@ -3667,7 +3664,7 @@
         <v>3.54</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K71" s="10">
         <v>20.646000000000001</v>
@@ -3687,7 +3684,7 @@
         <v>4</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>18</v>
@@ -3705,7 +3702,7 @@
         <v>3.54</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K72" s="10">
         <v>36.433999999999997</v>
@@ -3725,7 +3722,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>18</v>
@@ -3743,7 +3740,7 @@
         <v>3.54</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K73" s="20">
         <v>22.241</v>
@@ -3769,37 +3766,37 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
